--- a/biology/Botanique/Académie_royale_de_l'agriculture_et_de_la_sylviculture_de_Suède/Académie_royale_de_l'agriculture_et_de_la_sylviculture_de_Suède.xlsx
+++ b/biology/Botanique/Académie_royale_de_l'agriculture_et_de_la_sylviculture_de_Suède/Académie_royale_de_l'agriculture_et_de_la_sylviculture_de_Suède.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Acad%C3%A9mie_royale_de_l%27agriculture_et_de_la_sylviculture_de_Su%C3%A8de</t>
+          <t>Académie_royale_de_l'agriculture_et_de_la_sylviculture_de_Suède</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Académie royale de l'agriculture et de la sylviculture de Suède est une des académies royales de Suède.
 Elle a depuis 1972 son siège à Drottninggatan 95, près du parc Observatorielunden, dans les anciens locaux de l'École royale polytechnique (KTH).
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Acad%C3%A9mie_royale_de_l%27agriculture_et_de_la_sylviculture_de_Su%C3%A8de</t>
+          <t>Académie_royale_de_l'agriculture_et_de_la_sylviculture_de_Suède</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Kongl. Svenska Landtbruks-Academien, ou Académie Royale Suédoise d’Agriculture, a été fondée en 1811 et a commencé ses activités le 28 janvier 1813 sur initiative du prince héritier de l’époque, Karl Johan, qui deviendra plus tard le roi Charles XIV Jean de Suède. Son modèle d’inspiration était probablement l'Académie d'agriculture de France et il prit la tête de l’institution suédoise nouvellement inaugurée en tant que premier président de son histoire.
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Acad%C3%A9mie_royale_de_l%27agriculture_et_de_la_sylviculture_de_Su%C3%A8de</t>
+          <t>Académie_royale_de_l'agriculture_et_de_la_sylviculture_de_Suède</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,6 +561,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -554,7 +570,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Acad%C3%A9mie_royale_de_l%27agriculture_et_de_la_sylviculture_de_Su%C3%A8de</t>
+          <t>Académie_royale_de_l'agriculture_et_de_la_sylviculture_de_Suède</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,6 +589,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
